--- a/VerbTense1 Repo.xlsx
+++ b/VerbTense1 Repo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD3E3F-7954-454D-B13E-A0DB829D29E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800B7CF-C5B8-0A4C-A782-84D9620D987F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="480" windowWidth="31700" windowHeight="17440" xr2:uid="{A92E58C3-DEEF-5740-8923-F8C92AAA8A41}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Verb</t>
   </si>
@@ -474,13 +474,16 @@
   </si>
   <si>
     <t>"write"</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,8 +516,15 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,11 +552,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -550,8 +567,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -865,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A916FE1-C284-D84C-896C-BD533F701DC8}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" ref="D67:D72" si="6">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A67</f>
+        <f t="shared" ref="D67:D73" si="6">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A67</f>
         <v>verbTense(66, 1) = "understands"</v>
       </c>
       <c r="E67" s="1" t="str">
@@ -2815,6 +2837,33 @@
       <c r="G72" s="1" t="str">
         <f t="shared" si="8"/>
         <v>verbTense(71, 1) = "writes" : verbTense(71, 2) = "write" : verbTense(71, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(72, 1) = ""</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f t="shared" ref="E73" si="9">"verbTense(" &amp; ROW(A73)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B73</f>
+        <v>verbTense(72, 2) = ""</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" ref="F73" si="10">"verbTense(" &amp; ROW(A73)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C73</f>
+        <v>verbTense(72, 3) = "N"</v>
+      </c>
+      <c r="G73" s="6" t="str">
+        <f xml:space="preserve"> D73 &amp; " : " &amp; E73 &amp; " : " &amp; F73</f>
+        <v>verbTense(72, 1) = "" : verbTense(72, 2) = "" : verbTense(72, 3) = "N"</v>
       </c>
     </row>
   </sheetData>

--- a/VerbTense1 Repo.xlsx
+++ b/VerbTense1 Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800B7CF-C5B8-0A4C-A782-84D9620D987F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489202E7-CD31-4E96-B057-95D6C909185F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="480" windowWidth="31700" windowHeight="17440" xr2:uid="{A92E58C3-DEEF-5740-8923-F8C92AAA8A41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A92E58C3-DEEF-5740-8923-F8C92AAA8A41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="151">
   <si>
     <t>Verb</t>
   </si>
@@ -477,6 +478,12 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>"recruits"</t>
+  </si>
+  <si>
+    <t>"recruit"</t>
   </si>
 </sst>
 </file>
@@ -887,25 +894,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A916FE1-C284-D84C-896C-BD533F701DC8}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="68.83203125" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="68.875" customWidth="1"/>
+    <col min="5" max="5" width="52.625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="118.6640625" customWidth="1"/>
+    <col min="7" max="7" width="118.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -922,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -949,7 +956,7 @@
         <v>verbTense(1, 1) = "accomplishes" : verbTense(1, 2) = "accomplish" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -960,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D66" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
+        <f t="shared" ref="D3:D67" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
         <v>verbTense(2, 1) = "acts"</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -968,15 +975,15 @@
         <v>verbTense(2, 2) = "act"</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
+        <f t="shared" ref="F3:F67" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
         <v>verbTense(2, 3) = "N"</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G66" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
+        <f t="shared" ref="G3:G67" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
         <v>verbTense(2, 1) = "acts" : verbTense(2, 2) = "act" : verbTense(2, 3) = "N"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1010,7 @@
         <v>verbTense(3, 1) = "administers" : verbTense(3, 2) = "administer" : verbTense(3, 3) = "N"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>verbTense(4, 1) = "advises" : verbTense(4, 2) = "advise" : verbTense(4, 3) = "N"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>verbTense(5, 1) = "analyzes" : verbTense(5, 2) = "analyze" : verbTense(5, 3) = "N"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>verbTense(6, 1) = "anticipates" : verbTense(6, 2) = "anticipate" : verbTense(6, 3) = "N"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>verbTense(7, 1) = "applies" : verbTense(7, 2) = "apply" : verbTense(7, 3) = "N"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>verbTense(8, 1) = "assesses" : verbTense(8, 2) = "assess" : verbTense(8, 3) = "N"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>verbTense(9, 1) = "assigns" : verbTense(9, 2) = "assign" : verbTense(9, 3) = "N"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>verbTense(10, 1) = "assists" : verbTense(10, 2) = "assist" : verbTense(10, 3) = "N"</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>verbTense(11, 1) = "attends" : verbTense(11, 2) = "attend" : verbTense(11, 3) = "N"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>verbTense(12, 1) = "builds" : verbTense(12, 2) = "build" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>verbTense(13, 1) = "carries" : verbTense(13, 2) = "carry" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>verbTense(14, 1) = "checks" : verbTense(14, 2) = "check" : verbTense(14, 3) = "N"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>verbTense(15, 1) = "collaborates" : verbTense(15, 2) = "collaborate" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>verbTense(16, 1) = "completes" : verbTense(16, 2) = "complete" : verbTense(16, 3) = "N"</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>verbTense(17, 1) = "conducts" : verbTense(17, 2) = "conduct" : verbTense(17, 3) = "N"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>verbTense(18, 1) = "connects" : verbTense(18, 2) = "connect" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>verbTense(19, 1) = "consults" : verbTense(19, 2) = "consult" : verbTense(19, 3) = "N"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>verbTense(20, 1) = "contributes" : verbTense(20, 2) = "contribute" : verbTense(20, 3) = "N"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>verbTense(21, 1) = "converts" : verbTense(21, 2) = "convert" : verbTense(21, 3) = "N"</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>verbTense(22, 1) = "coordinates" : verbTense(22, 2) = "coordinate" : verbTense(22, 3) = "N"</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>verbTense(23, 1) = "creates" : verbTense(23, 2) = "create" : verbTense(23, 3) = "N"</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>verbTense(24, 1) = "delivers" : verbTense(24, 2) = "deliver" : verbTense(24, 3) = "N"</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>verbTense(25, 1) = "demonstrates" : verbTense(25, 2) = "demonstrate" : verbTense(25, 3) = "N"</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>verbTense(26, 1) = "designs" : verbTense(26, 2) = "design" : verbTense(26, 3) = "N"</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1658,7 @@
         <v>verbTense(27, 1) = "determines" : verbTense(27, 2) = "determine" : verbTense(27, 3) = "N"</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>verbTense(28, 1) = "develops" : verbTense(28, 2) = "develop" : verbTense(28, 3) = "N"</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>verbTense(29, 1) = "directs" : verbTense(29, 2) = "direct" : verbTense(29, 3) = "N"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>verbTense(30, 1) = "drives" : verbTense(30, 2) = "drive" : verbTense(30, 3) = "N"</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>verbTense(31, 1) = "ensures" : verbTense(31, 2) = "ensure" : verbTense(31, 3) = "N"</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>verbTense(32, 1) = "establishes" : verbTense(32, 2) = "establish" : verbTense(32, 3) = "N"</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>verbTense(33, 1) = "executes"</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" ref="E34:E65" si="4">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B34</f>
+        <f t="shared" ref="E34:E66" si="4">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B34</f>
         <v>verbTense(33, 2) = "execute"</v>
       </c>
       <c r="F34" s="1" t="str">
@@ -1813,7 +1820,7 @@
         <v>verbTense(33, 1) = "executes" : verbTense(33, 2) = "execute" : verbTense(33, 3) = "N"</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1840,7 +1847,7 @@
         <v>verbTense(34, 1) = "generates" : verbTense(34, 2) = "generate" : verbTense(34, 3) = "N"</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1867,7 +1874,7 @@
         <v>verbTense(35, 1) = "identifies" : verbTense(35, 2) = "identify" : verbTense(35, 3) = "N"</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>verbTense(36, 1) = "implements" : verbTense(36, 2) = "implement" : verbTense(36, 3) = "N"</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>verbTense(37, 1) = "initiates" : verbTense(37, 2) = "initiate" : verbTense(37, 3) = "N"</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>verbTense(38, 1) = "installs" : verbTense(38, 2) = "install" : verbTense(38, 3) = "N"</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>verbTense(39, 1) = "interacts" : verbTense(39, 2) = "interact" : verbTense(39, 3) = "N"</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v>verbTense(40, 1) = "interprets" : verbTense(40, 2) = "interpret" : verbTense(40, 3) = "N"</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>verbTense(41, 1) = "investigates" : verbTense(41, 2) = "investigate" : verbTense(41, 3) = "N"</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>verbTense(42, 1) = "leads" : verbTense(42, 2) = "lead" : verbTense(42, 3) = "N"</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>verbTense(43, 1) = "maintains" : verbTense(43, 2) = "maintain" : verbTense(43, 3) = "N"</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>verbTense(44, 1) = "manages" : verbTense(44, 2) = "manage" : verbTense(44, 3) = "N"</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>verbTense(45, 1) = "mentors" : verbTense(45, 2) = "mentor" : verbTense(45, 3) = "N"</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>verbTense(46, 1) = "monitors" : verbTense(46, 2) = "monitor" : verbTense(46, 3) = "N"</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>verbTense(47, 1) = "moves" : verbTense(47, 2) = "move" : verbTense(47, 3) = "N"</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>verbTense(48, 1) = "organizes" : verbTense(48, 2) = "organize" : verbTense(48, 3) = "N"</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -2245,7 +2252,7 @@
         <v>verbTense(49, 1) = "oversees" : verbTense(49, 2) = "oversee" : verbTense(49, 3) = "N"</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>verbTense(50, 1) = "participates" : verbTense(50, 2) = "participate" : verbTense(50, 3) = "N"</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>verbTense(51, 1) = "partners" : verbTense(51, 2) = "partner" : verbTense(51, 3) = "Y"</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -2326,7 +2333,7 @@
         <v>verbTense(52, 1) = "performs" : verbTense(52, 2) = "perform" : verbTense(52, 3) = "N"</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>verbTense(53, 1) = "plays" : verbTense(53, 2) = "play" : verbTense(53, 3) = "N"</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>verbTense(54, 1) = "prepares" : verbTense(54, 2) = "prepare" : verbTense(54, 3) = "N"</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>verbTense(55, 1) = "presents" : verbTense(55, 2) = "present" : verbTense(55, 3) = "N"</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>verbTense(56, 1) = "protects" : verbTense(56, 2) = "protect" : verbTense(56, 3) = "N"</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
@@ -2461,104 +2468,104 @@
         <v>verbTense(57, 1) = "provides" : verbTense(57, 2) = "provide" : verbTense(57, 3) = "N"</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" ref="D59" si="5">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A59</f>
+        <v>verbTense(58, 1) = "recruits"</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" ref="E59" si="6">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B59</f>
+        <v>verbTense(58, 2) = "recruit"</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" ref="F59" si="7">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C59</f>
+        <v>verbTense(58, 3) = "N"</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" ref="G59" si="8" xml:space="preserve"> D59 &amp; " : " &amp; E59 &amp; " : " &amp; F59</f>
+        <v>verbTense(58, 1) = "recruits" : verbTense(58, 2) = "recruit" : verbTense(58, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(58, 1) = "replicates"</v>
-      </c>
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(58, 2) = "replicate"</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(58, 3) = "N"</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(58, 1) = "replicates" : verbTense(58, 2) = "replicate" : verbTense(58, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(59, 1) = "replicates"</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(59, 2) = "replicate"</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(59, 3) = "N"</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(59, 1) = "replicates" : verbTense(59, 2) = "replicate" : verbTense(59, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(59, 1) = "resolves"</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(59, 2) = "resolve"</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(59, 3) = "N"</v>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(59, 1) = "resolves" : verbTense(59, 2) = "resolve" : verbTense(59, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(60, 1) = "resolves"</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(60, 2) = "resolve"</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(60, 3) = "N"</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(60, 1) = "resolves" : verbTense(60, 2) = "resolve" : verbTense(60, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(60, 1) = "reviews"</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(60, 2) = "review"</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(60, 3) = "Y"</v>
-      </c>
-      <c r="G61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(60, 1) = "reviews" : verbTense(60, 2) = "review" : verbTense(60, 3) = "Y"</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(61, 1) = "runs"</v>
+        <v>verbTense(61, 1) = "reviews"</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(61, 2) = "run"</v>
+        <v>verbTense(61, 2) = "review"</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2566,308 +2573,335 @@
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(61, 1) = "runs" : verbTense(61, 2) = "run" : verbTense(61, 3) = "Y"</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(61, 1) = "reviews" : verbTense(61, 2) = "review" : verbTense(61, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(62, 1) = "runs"</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(62, 2) = "run"</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(62, 3) = "Y"</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(62, 1) = "runs" : verbTense(62, 2) = "run" : verbTense(62, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(62, 1) = "serves"</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(62, 2) = "serve"</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(62, 3) = "N"</v>
-      </c>
-      <c r="G63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(62, 1) = "serves" : verbTense(62, 2) = "serve" : verbTense(62, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(63, 1) = "serves"</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(63, 2) = "serve"</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(63, 3) = "N"</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(63, 1) = "serves" : verbTense(63, 2) = "serve" : verbTense(63, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(63, 1) = "specifies"</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(63, 2) = "specify"</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(63, 3) = "N"</v>
-      </c>
-      <c r="G64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(63, 1) = "specifies" : verbTense(63, 2) = "specify" : verbTense(63, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(64, 1) = "specifies"</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(64, 2) = "specify"</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(64, 3) = "N"</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(64, 1) = "specifies" : verbTense(64, 2) = "specify" : verbTense(64, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(64, 1) = "supports"</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(64, 2) = "support"</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(64, 3) = "N"</v>
-      </c>
-      <c r="G65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(64, 1) = "supports" : verbTense(64, 2) = "support" : verbTense(64, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(65, 1) = "supports"</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(65, 2) = "support"</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(65, 3) = "N"</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(65, 1) = "supports" : verbTense(65, 2) = "support" : verbTense(65, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(65, 1) = "translates"</v>
-      </c>
-      <c r="E66" s="1" t="str">
-        <f t="shared" ref="E66:E72" si="5">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B66</f>
-        <v>verbTense(65, 2) = "translate"</v>
-      </c>
-      <c r="F66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(65, 3) = "N"</v>
-      </c>
-      <c r="G66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(65, 1) = "translates" : verbTense(65, 2) = "translate" : verbTense(65, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(66, 1) = "translates"</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" ref="E67:E73" si="9">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B67</f>
+        <v>verbTense(66, 2) = "translate"</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(66, 3) = "N"</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(66, 1) = "translates" : verbTense(66, 2) = "translate" : verbTense(66, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" ref="D67:D73" si="6">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A67</f>
-        <v>verbTense(66, 1) = "understands"</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(66, 2) = "understand"</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F72" si="7">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C67</f>
-        <v>verbTense(66, 3) = "N"</v>
-      </c>
-      <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G72" si="8" xml:space="preserve"> D67 &amp; " : " &amp; E67 &amp; " : " &amp; F67</f>
-        <v>verbTense(66, 1) = "understands" : verbTense(66, 2) = "understand" : verbTense(66, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" ref="D68:D74" si="10">"verbTense(" &amp; ROW(A68)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A68</f>
+        <v>verbTense(67, 1) = "understands"</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(67, 2) = "understand"</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" ref="F68:F73" si="11">"verbTense(" &amp; ROW(A68)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C68</f>
+        <v>verbTense(67, 3) = "N"</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" ref="G68:G73" si="12" xml:space="preserve"> D68 &amp; " : " &amp; E68 &amp; " : " &amp; F68</f>
+        <v>verbTense(67, 1) = "understands" : verbTense(67, 2) = "understand" : verbTense(67, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(67, 1) = "uses"</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(67, 2) = "use"</v>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(67, 3) = "N"</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(67, 1) = "uses" : verbTense(67, 2) = "use" : verbTense(67, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(68, 1) = "uses"</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(68, 2) = "use"</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(68, 3) = "N"</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>verbTense(68, 1) = "uses" : verbTense(68, 2) = "use" : verbTense(68, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(68, 1) = "utilizes"</v>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(68, 2) = "utilize"</v>
-      </c>
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(68, 3) = "N"</v>
-      </c>
-      <c r="G69" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(68, 1) = "utilizes" : verbTense(68, 2) = "utilize" : verbTense(68, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(69, 1) = "utilizes"</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(69, 2) = "utilize"</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(69, 3) = "N"</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>verbTense(69, 1) = "utilizes" : verbTense(69, 2) = "utilize" : verbTense(69, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(69, 1) = "validates"</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(69, 2) = "validate"</v>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(69, 3) = "N"</v>
-      </c>
-      <c r="G70" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(69, 1) = "validates" : verbTense(69, 2) = "validate" : verbTense(69, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(70, 1) = "validates"</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(70, 2) = "validate"</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(70, 3) = "N"</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>verbTense(70, 1) = "validates" : verbTense(70, 2) = "validate" : verbTense(70, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(70, 1) = "works"</v>
-      </c>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(70, 2) = "work"</v>
-      </c>
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(70, 3) = "N"</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(70, 1) = "works" : verbTense(70, 2) = "work" : verbTense(70, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(71, 1) = "works"</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(71, 2) = "work"</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(71, 3) = "N"</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>verbTense(71, 1) = "works" : verbTense(71, 2) = "work" : verbTense(71, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(71, 1) = "writes"</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(71, 2) = "write"</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(71, 3) = "N"</v>
-      </c>
-      <c r="G72" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(71, 1) = "writes" : verbTense(71, 2) = "write" : verbTense(71, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(72, 1) = "writes"</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(72, 2) = "write"</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(72, 3) = "N"</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>verbTense(72, 1) = "writes" : verbTense(72, 2) = "write" : verbTense(72, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(72, 1) = ""</v>
-      </c>
-      <c r="E73" s="6" t="str">
-        <f t="shared" ref="E73" si="9">"verbTense(" &amp; ROW(A73)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B73</f>
-        <v>verbTense(72, 2) = ""</v>
-      </c>
-      <c r="F73" s="6" t="str">
-        <f t="shared" ref="F73" si="10">"verbTense(" &amp; ROW(A73)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C73</f>
-        <v>verbTense(72, 3) = "N"</v>
-      </c>
-      <c r="G73" s="6" t="str">
-        <f xml:space="preserve"> D73 &amp; " : " &amp; E73 &amp; " : " &amp; F73</f>
-        <v>verbTense(72, 1) = "" : verbTense(72, 2) = "" : verbTense(72, 3) = "N"</v>
+      <c r="C74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(73, 1) = ""</v>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f t="shared" ref="E74" si="13">"verbTense(" &amp; ROW(A74)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B74</f>
+        <v>verbTense(73, 2) = ""</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" ref="F74" si="14">"verbTense(" &amp; ROW(A74)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C74</f>
+        <v>verbTense(73, 3) = "N"</v>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f xml:space="preserve"> D74 &amp; " : " &amp; E74 &amp; " : " &amp; F74</f>
+        <v>verbTense(73, 1) = "" : verbTense(73, 2) = "" : verbTense(73, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerbTense1 Repo.xlsx
+++ b/VerbTense1 Repo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\Repositories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Macros-Ideas\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489202E7-CD31-4E96-B057-95D6C909185F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B5674-2D27-48C6-9843-F16E4D632B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A92E58C3-DEEF-5740-8923-F8C92AAA8A41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
   <si>
     <t>Verb</t>
   </si>
@@ -484,13 +484,55 @@
   </si>
   <si>
     <t>"recruit"</t>
+  </si>
+  <si>
+    <t>"shows"</t>
+  </si>
+  <si>
+    <t>"show"</t>
+  </si>
+  <si>
+    <t>"enhance"</t>
+  </si>
+  <si>
+    <t>"enhances"</t>
+  </si>
+  <si>
+    <t>"has"</t>
+  </si>
+  <si>
+    <t>"have"</t>
+  </si>
+  <si>
+    <t>"improves"</t>
+  </si>
+  <si>
+    <t>"improve"</t>
+  </si>
+  <si>
+    <t>"facilitates"</t>
+  </si>
+  <si>
+    <t>"facilitate"</t>
+  </si>
+  <si>
+    <t>"coaches"</t>
+  </si>
+  <si>
+    <t>"coach"</t>
+  </si>
+  <si>
+    <t>"helps"</t>
+  </si>
+  <si>
+    <t>"help"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +572,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -564,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -574,10 +621,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
@@ -894,21 +942,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A916FE1-C284-D84C-896C-BD533F701DC8}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G2:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="68.875" customWidth="1"/>
     <col min="5" max="5" width="52.625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="6" max="6" width="35.125" customWidth="1"/>
     <col min="7" max="7" width="118.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,7 +992,7 @@
         <v>verbTense(1, 1) = "accomplishes"</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E33" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E35" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "accomplish"</v>
       </c>
       <c r="F2" s="1" t="str">
@@ -967,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D67" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
+        <f t="shared" ref="D3:D43" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
         <v>verbTense(2, 1) = "acts"</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -975,11 +1023,11 @@
         <v>verbTense(2, 2) = "act"</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F67" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
+        <f t="shared" ref="F3:F43" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
         <v>verbTense(2, 3) = "N"</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G67" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
+        <f t="shared" ref="G3:G74" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
         <v>verbTense(2, 1) = "acts" : verbTense(2, 2) = "act" : verbTense(2, 3) = "N"</v>
       </c>
     </row>
@@ -1309,21 +1357,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(15, 1) = "collaborates"</v>
+        <v>verbTense(15, 1) = "coaches"</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(15, 2) = "collaborate"</v>
+        <v>verbTense(15, 2) = "coach"</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1331,26 +1379,26 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(15, 1) = "collaborates" : verbTense(15, 2) = "collaborate" : verbTense(15, 3) = "N"</v>
+        <v>verbTense(15, 1) = "coaches" : verbTense(15, 2) = "coach" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(16, 1) = "completes"</v>
+        <v>verbTense(16, 1) = "collaborates"</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(16, 2) = "complete"</v>
+        <v>verbTense(16, 2) = "collaborate"</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1358,26 +1406,26 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(16, 1) = "completes" : verbTense(16, 2) = "complete" : verbTense(16, 3) = "N"</v>
+        <v>verbTense(16, 1) = "collaborates" : verbTense(16, 2) = "collaborate" : verbTense(16, 3) = "N"</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(17, 1) = "conducts"</v>
+        <v>verbTense(17, 1) = "completes"</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(17, 2) = "conduct"</v>
+        <v>verbTense(17, 2) = "complete"</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1385,26 +1433,26 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(17, 1) = "conducts" : verbTense(17, 2) = "conduct" : verbTense(17, 3) = "N"</v>
+        <v>verbTense(17, 1) = "completes" : verbTense(17, 2) = "complete" : verbTense(17, 3) = "N"</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(18, 1) = "connects"</v>
+        <v>verbTense(18, 1) = "conducts"</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(18, 2) = "connect"</v>
+        <v>verbTense(18, 2) = "conduct"</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1412,26 +1460,26 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(18, 1) = "connects" : verbTense(18, 2) = "connect" : verbTense(18, 3) = "N"</v>
+        <v>verbTense(18, 1) = "conducts" : verbTense(18, 2) = "conduct" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(19, 1) = "consults"</v>
+        <v>verbTense(19, 1) = "connects"</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(19, 2) = "consult"</v>
+        <v>verbTense(19, 2) = "connect"</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1439,26 +1487,26 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(19, 1) = "consults" : verbTense(19, 2) = "consult" : verbTense(19, 3) = "N"</v>
+        <v>verbTense(19, 1) = "connects" : verbTense(19, 2) = "connect" : verbTense(19, 3) = "N"</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(20, 1) = "contributes"</v>
+        <v>verbTense(20, 1) = "consults"</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(20, 2) = "contribute"</v>
+        <v>verbTense(20, 2) = "consult"</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1466,26 +1514,26 @@
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(20, 1) = "contributes" : verbTense(20, 2) = "contribute" : verbTense(20, 3) = "N"</v>
+        <v>verbTense(20, 1) = "consults" : verbTense(20, 2) = "consult" : verbTense(20, 3) = "N"</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(21, 1) = "converts"</v>
+        <v>verbTense(21, 1) = "contributes"</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(21, 2) = "convert"</v>
+        <v>verbTense(21, 2) = "contribute"</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1493,26 +1541,26 @@
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(21, 1) = "converts" : verbTense(21, 2) = "convert" : verbTense(21, 3) = "N"</v>
+        <v>verbTense(21, 1) = "contributes" : verbTense(21, 2) = "contribute" : verbTense(21, 3) = "N"</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(22, 1) = "coordinates"</v>
+        <v>verbTense(22, 1) = "converts"</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(22, 2) = "coordinate"</v>
+        <v>verbTense(22, 2) = "convert"</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1520,26 +1568,26 @@
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(22, 1) = "coordinates" : verbTense(22, 2) = "coordinate" : verbTense(22, 3) = "N"</v>
+        <v>verbTense(22, 1) = "converts" : verbTense(22, 2) = "convert" : verbTense(22, 3) = "N"</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(23, 1) = "creates"</v>
+        <v>verbTense(23, 1) = "coordinates"</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(23, 2) = "create"</v>
+        <v>verbTense(23, 2) = "coordinate"</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1547,26 +1595,26 @@
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(23, 1) = "creates" : verbTense(23, 2) = "create" : verbTense(23, 3) = "N"</v>
+        <v>verbTense(23, 1) = "coordinates" : verbTense(23, 2) = "coordinate" : verbTense(23, 3) = "N"</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(24, 1) = "delivers"</v>
+        <v>verbTense(24, 1) = "creates"</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(24, 2) = "deliver"</v>
+        <v>verbTense(24, 2) = "create"</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1574,26 +1622,26 @@
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(24, 1) = "delivers" : verbTense(24, 2) = "deliver" : verbTense(24, 3) = "N"</v>
+        <v>verbTense(24, 1) = "creates" : verbTense(24, 2) = "create" : verbTense(24, 3) = "N"</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(25, 1) = "demonstrates"</v>
+        <v>verbTense(25, 1) = "delivers"</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(25, 2) = "demonstrate"</v>
+        <v>verbTense(25, 2) = "deliver"</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1601,26 +1649,26 @@
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(25, 1) = "demonstrates" : verbTense(25, 2) = "demonstrate" : verbTense(25, 3) = "N"</v>
+        <v>verbTense(25, 1) = "delivers" : verbTense(25, 2) = "deliver" : verbTense(25, 3) = "N"</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(26, 1) = "designs"</v>
+        <v>verbTense(26, 1) = "demonstrates"</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(26, 2) = "design"</v>
+        <v>verbTense(26, 2) = "demonstrate"</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1628,26 +1676,26 @@
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(26, 1) = "designs" : verbTense(26, 2) = "design" : verbTense(26, 3) = "N"</v>
+        <v>verbTense(26, 1) = "demonstrates" : verbTense(26, 2) = "demonstrate" : verbTense(26, 3) = "N"</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(27, 1) = "determines"</v>
+        <v>verbTense(27, 1) = "designs"</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(27, 2) = "determine"</v>
+        <v>verbTense(27, 2) = "design"</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1655,26 +1703,26 @@
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(27, 1) = "determines" : verbTense(27, 2) = "determine" : verbTense(27, 3) = "N"</v>
+        <v>verbTense(27, 1) = "designs" : verbTense(27, 2) = "design" : verbTense(27, 3) = "N"</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(28, 1) = "develops"</v>
+        <v>verbTense(28, 1) = "determines"</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(28, 2) = "develop"</v>
+        <v>verbTense(28, 2) = "determine"</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1682,26 +1730,26 @@
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(28, 1) = "develops" : verbTense(28, 2) = "develop" : verbTense(28, 3) = "N"</v>
+        <v>verbTense(28, 1) = "determines" : verbTense(28, 2) = "determine" : verbTense(28, 3) = "N"</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(29, 1) = "directs"</v>
+        <v>verbTense(29, 1) = "develops"</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(29, 2) = "direct"</v>
+        <v>verbTense(29, 2) = "develop"</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1709,26 +1757,26 @@
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(29, 1) = "directs" : verbTense(29, 2) = "direct" : verbTense(29, 3) = "N"</v>
+        <v>verbTense(29, 1) = "develops" : verbTense(29, 2) = "develop" : verbTense(29, 3) = "N"</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(30, 1) = "drives"</v>
+        <v>verbTense(30, 1) = "directs"</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(30, 2) = "drive"</v>
+        <v>verbTense(30, 2) = "direct"</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1736,26 +1784,26 @@
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(30, 1) = "drives" : verbTense(30, 2) = "drive" : verbTense(30, 3) = "N"</v>
+        <v>verbTense(30, 1) = "directs" : verbTense(30, 2) = "direct" : verbTense(30, 3) = "N"</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(31, 1) = "ensures"</v>
+        <v>verbTense(31, 1) = "drives"</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(31, 2) = "ensure"</v>
+        <v>verbTense(31, 2) = "drive"</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1763,26 +1811,26 @@
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(31, 1) = "ensures" : verbTense(31, 2) = "ensure" : verbTense(31, 3) = "N"</v>
+        <v>verbTense(31, 1) = "drives" : verbTense(31, 2) = "drive" : verbTense(31, 3) = "N"</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(32, 1) = "establishes"</v>
+        <v>verbTense(32, 1) = "enhances"</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(32, 2) = "establish"</v>
+        <v>verbTense(32, 2) = "enhance"</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1790,26 +1838,26 @@
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(32, 1) = "establishes" : verbTense(32, 2) = "establish" : verbTense(32, 3) = "N"</v>
+        <v>verbTense(32, 1) = "enhances" : verbTense(32, 2) = "enhance" : verbTense(32, 3) = "N"</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(33, 1) = "executes"</v>
+        <v>verbTense(33, 1) = "ensures"</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" ref="E34:E66" si="4">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B34</f>
-        <v>verbTense(33, 2) = "execute"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(33, 2) = "ensure"</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1817,26 +1865,26 @@
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(33, 1) = "executes" : verbTense(33, 2) = "execute" : verbTense(33, 3) = "N"</v>
+        <v>verbTense(33, 1) = "ensures" : verbTense(33, 2) = "ensure" : verbTense(33, 3) = "N"</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(34, 1) = "generates"</v>
+        <v>verbTense(34, 1) = "establishes"</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(34, 2) = "generate"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(34, 2) = "establish"</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1844,26 +1892,26 @@
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(34, 1) = "generates" : verbTense(34, 2) = "generate" : verbTense(34, 3) = "N"</v>
+        <v>verbTense(34, 1) = "establishes" : verbTense(34, 2) = "establish" : verbTense(34, 3) = "N"</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(35, 1) = "identifies"</v>
+        <v>verbTense(35, 1) = "executes"</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(35, 2) = "identify"</v>
+        <f t="shared" ref="E36:E43" si="4">"verbTense(" &amp; ROW(A36)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B36</f>
+        <v>verbTense(35, 2) = "execute"</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1871,26 +1919,26 @@
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(35, 1) = "identifies" : verbTense(35, 2) = "identify" : verbTense(35, 3) = "N"</v>
+        <v>verbTense(35, 1) = "executes" : verbTense(35, 2) = "execute" : verbTense(35, 3) = "N"</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(36, 1) = "implements"</v>
+        <v>verbTense(36, 1) = "facilitates"</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(36, 2) = "implement"</v>
+        <v>verbTense(36, 2) = "facilitate"</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1898,26 +1946,26 @@
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(36, 1) = "implements" : verbTense(36, 2) = "implement" : verbTense(36, 3) = "N"</v>
+        <v>verbTense(36, 1) = "facilitates" : verbTense(36, 2) = "facilitate" : verbTense(36, 3) = "N"</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(37, 1) = "initiates"</v>
+        <v>verbTense(37, 1) = "generates"</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(37, 2) = "initiate"</v>
+        <v>verbTense(37, 2) = "generate"</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1925,26 +1973,26 @@
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(37, 1) = "initiates" : verbTense(37, 2) = "initiate" : verbTense(37, 3) = "N"</v>
+        <v>verbTense(37, 1) = "generates" : verbTense(37, 2) = "generate" : verbTense(37, 3) = "N"</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(38, 1) = "installs"</v>
+        <v>verbTense(38, 1) = "has"</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(38, 2) = "install"</v>
+        <v>verbTense(38, 2) = "have"</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1952,26 +2000,26 @@
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(38, 1) = "installs" : verbTense(38, 2) = "install" : verbTense(38, 3) = "N"</v>
+        <v>verbTense(38, 1) = "has" : verbTense(38, 2) = "have" : verbTense(38, 3) = "N"</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(39, 1) = "interacts"</v>
+        <v>verbTense(39, 1) = "helps"</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(39, 2) = "interact"</v>
+        <v>verbTense(39, 2) = "help"</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1979,26 +2027,26 @@
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(39, 1) = "interacts" : verbTense(39, 2) = "interact" : verbTense(39, 3) = "N"</v>
+        <v>verbTense(39, 1) = "helps" : verbTense(39, 2) = "help" : verbTense(39, 3) = "N"</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(40, 1) = "interprets"</v>
+        <v>verbTense(40, 1) = "identifies"</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(40, 2) = "interpret"</v>
+        <v>verbTense(40, 2) = "identify"</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2006,26 +2054,26 @@
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(40, 1) = "interprets" : verbTense(40, 2) = "interpret" : verbTense(40, 3) = "N"</v>
+        <v>verbTense(40, 1) = "identifies" : verbTense(40, 2) = "identify" : verbTense(40, 3) = "N"</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(41, 1) = "investigates"</v>
+        <v>verbTense(41, 1) = "implements"</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(41, 2) = "investigate"</v>
+        <v>verbTense(41, 2) = "implement"</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2033,26 +2081,26 @@
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(41, 1) = "investigates" : verbTense(41, 2) = "investigate" : verbTense(41, 3) = "N"</v>
+        <v>verbTense(41, 1) = "implements" : verbTense(41, 2) = "implement" : verbTense(41, 3) = "N"</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(42, 1) = "leads"</v>
+        <v>verbTense(42, 1) = "improves"</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(42, 2) = "lead"</v>
+        <v>verbTense(42, 2) = "improve"</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2060,850 +2108,1040 @@
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(42, 1) = "leads" : verbTense(42, 2) = "lead" : verbTense(42, 3) = "N"</v>
+        <v>verbTense(42, 1) = "improves" : verbTense(42, 2) = "improve" : verbTense(42, 3) = "N"</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(43, 1) = "maintains"</v>
+        <f t="shared" ref="D44:D81" si="5">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A44</f>
+        <v>verbTense(43, 1) = "initiates"</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(43, 2) = "maintain"</v>
+        <f t="shared" ref="E44:E81" si="6">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B44</f>
+        <v>verbTense(43, 2) = "initiate"</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F44:F81" si="7">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C44</f>
         <v>verbTense(43, 3) = "N"</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(43, 1) = "maintains" : verbTense(43, 2) = "maintain" : verbTense(43, 3) = "N"</v>
+        <v>verbTense(43, 1) = "initiates" : verbTense(43, 2) = "initiate" : verbTense(43, 3) = "N"</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(44, 1) = "manages"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(44, 1) = "installs"</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(44, 2) = "manage"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(44, 2) = "install"</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(44, 3) = "N"</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(44, 1) = "manages" : verbTense(44, 2) = "manage" : verbTense(44, 3) = "N"</v>
+        <v>verbTense(44, 1) = "installs" : verbTense(44, 2) = "install" : verbTense(44, 3) = "N"</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(45, 1) = "mentors"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(45, 1) = "interacts"</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(45, 2) = "mentor"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(45, 2) = "interact"</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(45, 3) = "N"</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(45, 1) = "mentors" : verbTense(45, 2) = "mentor" : verbTense(45, 3) = "N"</v>
+        <v>verbTense(45, 1) = "interacts" : verbTense(45, 2) = "interact" : verbTense(45, 3) = "N"</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(46, 1) = "monitors"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(46, 1) = "interprets"</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(46, 2) = "monitor"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(46, 2) = "interpret"</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(46, 3) = "N"</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(46, 1) = "monitors" : verbTense(46, 2) = "monitor" : verbTense(46, 3) = "N"</v>
+        <v>verbTense(46, 1) = "interprets" : verbTense(46, 2) = "interpret" : verbTense(46, 3) = "N"</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(47, 1) = "moves"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(47, 1) = "investigates"</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(47, 2) = "move"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(47, 2) = "investigate"</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(47, 3) = "N"</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(47, 1) = "moves" : verbTense(47, 2) = "move" : verbTense(47, 3) = "N"</v>
+        <v>verbTense(47, 1) = "investigates" : verbTense(47, 2) = "investigate" : verbTense(47, 3) = "N"</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(48, 1) = "organizes"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(48, 1) = "leads"</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(48, 2) = "organize"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(48, 2) = "lead"</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(48, 3) = "N"</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(48, 1) = "organizes" : verbTense(48, 2) = "organize" : verbTense(48, 3) = "N"</v>
+        <v>verbTense(48, 1) = "leads" : verbTense(48, 2) = "lead" : verbTense(48, 3) = "N"</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(49, 1) = "oversees"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(49, 1) = "maintains"</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(49, 2) = "oversee"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(49, 2) = "maintain"</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(49, 3) = "N"</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(49, 1) = "oversees" : verbTense(49, 2) = "oversee" : verbTense(49, 3) = "N"</v>
+        <v>verbTense(49, 1) = "maintains" : verbTense(49, 2) = "maintain" : verbTense(49, 3) = "N"</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(50, 1) = "participates"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(50, 1) = "manages"</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(50, 2) = "participate"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(50, 2) = "manage"</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(50, 3) = "N"</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(50, 1) = "participates" : verbTense(50, 2) = "participate" : verbTense(50, 3) = "N"</v>
+        <v>verbTense(50, 1) = "manages" : verbTense(50, 2) = "manage" : verbTense(50, 3) = "N"</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(51, 1) = "partners"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(51, 1) = "mentors"</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(51, 2) = "partner"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(51, 2) = "mentor"</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(51, 3) = "Y"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(51, 3) = "N"</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(51, 1) = "partners" : verbTense(51, 2) = "partner" : verbTense(51, 3) = "Y"</v>
+        <v>verbTense(51, 1) = "mentors" : verbTense(51, 2) = "mentor" : verbTense(51, 3) = "N"</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(52, 1) = "performs"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(52, 1) = "monitors"</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(52, 2) = "perform"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(52, 2) = "monitor"</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(52, 3) = "N"</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(52, 1) = "performs" : verbTense(52, 2) = "perform" : verbTense(52, 3) = "N"</v>
+        <v>verbTense(52, 1) = "monitors" : verbTense(52, 2) = "monitor" : verbTense(52, 3) = "N"</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(53, 1) = "plays"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(53, 1) = "moves"</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(53, 2) = "play"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(53, 2) = "move"</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(53, 3) = "N"</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(53, 1) = "plays" : verbTense(53, 2) = "play" : verbTense(53, 3) = "N"</v>
+        <v>verbTense(53, 1) = "moves" : verbTense(53, 2) = "move" : verbTense(53, 3) = "N"</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(54, 1) = "prepares"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(54, 1) = "organizes"</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(54, 2) = "prepare"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(54, 2) = "organize"</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(54, 3) = "N"</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(54, 1) = "prepares" : verbTense(54, 2) = "prepare" : verbTense(54, 3) = "N"</v>
+        <v>verbTense(54, 1) = "organizes" : verbTense(54, 2) = "organize" : verbTense(54, 3) = "N"</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(55, 1) = "presents"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(55, 1) = "oversees"</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(55, 2) = "present"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(55, 2) = "oversee"</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(55, 3) = "N"</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(55, 1) = "presents" : verbTense(55, 2) = "present" : verbTense(55, 3) = "N"</v>
+        <v>verbTense(55, 1) = "oversees" : verbTense(55, 2) = "oversee" : verbTense(55, 3) = "N"</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(56, 1) = "protects"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(56, 1) = "participates"</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(56, 2) = "protect"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(56, 2) = "participate"</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(56, 3) = "N"</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(56, 1) = "protects" : verbTense(56, 2) = "protect" : verbTense(56, 3) = "N"</v>
+        <v>verbTense(56, 1) = "participates" : verbTense(56, 2) = "participate" : verbTense(56, 3) = "N"</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(57, 1) = "provides"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(57, 1) = "partners"</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(57, 2) = "provide"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(57, 2) = "partner"</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(57, 3) = "N"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(57, 3) = "Y"</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(57, 1) = "provides" : verbTense(57, 2) = "provide" : verbTense(57, 3) = "N"</v>
+        <v>verbTense(57, 1) = "partners" : verbTense(57, 2) = "partner" : verbTense(57, 3) = "Y"</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" ref="D59" si="5">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A59</f>
-        <v>verbTense(58, 1) = "recruits"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(58, 1) = "performs"</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" ref="E59" si="6">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B59</f>
-        <v>verbTense(58, 2) = "recruit"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(58, 2) = "perform"</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" ref="F59" si="7">"verbTense(" &amp; ROW(A59)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C59</f>
+        <f t="shared" si="7"/>
         <v>verbTense(58, 3) = "N"</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" ref="G59" si="8" xml:space="preserve"> D59 &amp; " : " &amp; E59 &amp; " : " &amp; F59</f>
-        <v>verbTense(58, 1) = "recruits" : verbTense(58, 2) = "recruit" : verbTense(58, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(58, 1) = "performs" : verbTense(58, 2) = "perform" : verbTense(58, 3) = "N"</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(59, 1) = "replicates"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(59, 1) = "plays"</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(59, 2) = "replicate"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(59, 2) = "play"</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(59, 3) = "N"</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(59, 1) = "replicates" : verbTense(59, 2) = "replicate" : verbTense(59, 3) = "N"</v>
+        <v>verbTense(59, 1) = "plays" : verbTense(59, 2) = "play" : verbTense(59, 3) = "N"</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(60, 1) = "resolves"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(60, 1) = "prepares"</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(60, 2) = "resolve"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(60, 2) = "prepare"</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(60, 3) = "N"</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(60, 1) = "resolves" : verbTense(60, 2) = "resolve" : verbTense(60, 3) = "N"</v>
+        <v>verbTense(60, 1) = "prepares" : verbTense(60, 2) = "prepare" : verbTense(60, 3) = "N"</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(61, 1) = "reviews"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(61, 1) = "presents"</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(61, 2) = "review"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(61, 2) = "present"</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(61, 3) = "Y"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(61, 3) = "N"</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(61, 1) = "reviews" : verbTense(61, 2) = "review" : verbTense(61, 3) = "Y"</v>
+        <v>verbTense(61, 1) = "presents" : verbTense(61, 2) = "present" : verbTense(61, 3) = "N"</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(62, 1) = "runs"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(62, 1) = "protects"</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(62, 2) = "run"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(62, 2) = "protect"</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>verbTense(62, 3) = "Y"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(62, 3) = "N"</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(62, 1) = "runs" : verbTense(62, 2) = "run" : verbTense(62, 3) = "Y"</v>
+        <v>verbTense(62, 1) = "protects" : verbTense(62, 2) = "protect" : verbTense(62, 3) = "N"</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(63, 1) = "serves"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(63, 1) = "provides"</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(63, 2) = "serve"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(63, 2) = "provide"</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(63, 3) = "N"</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(63, 1) = "serves" : verbTense(63, 2) = "serve" : verbTense(63, 3) = "N"</v>
+        <v>verbTense(63, 1) = "provides" : verbTense(63, 2) = "provide" : verbTense(63, 3) = "N"</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(64, 1) = "specifies"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(64, 1) = "recruits"</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(64, 2) = "specify"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(64, 2) = "recruit"</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(64, 3) = "N"</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(64, 1) = "specifies" : verbTense(64, 2) = "specify" : verbTense(64, 3) = "N"</v>
+        <f t="shared" ref="G65" si="8" xml:space="preserve"> D65 &amp; " : " &amp; E65 &amp; " : " &amp; F65</f>
+        <v>verbTense(64, 1) = "recruits" : verbTense(64, 2) = "recruit" : verbTense(64, 3) = "N"</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(65, 1) = "supports"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(65, 1) = "replicates"</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(65, 2) = "support"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(65, 2) = "replicate"</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(65, 3) = "N"</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(65, 1) = "supports" : verbTense(65, 2) = "support" : verbTense(65, 3) = "N"</v>
+        <v>verbTense(65, 1) = "replicates" : verbTense(65, 2) = "replicate" : verbTense(65, 3) = "N"</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>verbTense(66, 1) = "translates"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(66, 1) = "resolves"</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" ref="E67:E73" si="9">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B67</f>
-        <v>verbTense(66, 2) = "translate"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(66, 2) = "resolve"</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>verbTense(66, 3) = "N"</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(66, 1) = "translates" : verbTense(66, 2) = "translate" : verbTense(66, 3) = "N"</v>
+        <v>verbTense(66, 1) = "resolves" : verbTense(66, 2) = "resolve" : verbTense(66, 3) = "N"</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" ref="D68:D74" si="10">"verbTense(" &amp; ROW(A68)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A68</f>
-        <v>verbTense(67, 1) = "understands"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(67, 1) = "reviews"</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(67, 2) = "understand"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(67, 2) = "review"</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" ref="F68:F73" si="11">"verbTense(" &amp; ROW(A68)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C68</f>
-        <v>verbTense(67, 3) = "N"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(67, 3) = "Y"</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" ref="G68:G73" si="12" xml:space="preserve"> D68 &amp; " : " &amp; E68 &amp; " : " &amp; F68</f>
-        <v>verbTense(67, 1) = "understands" : verbTense(67, 2) = "understand" : verbTense(67, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(67, 1) = "reviews" : verbTense(67, 2) = "review" : verbTense(67, 3) = "Y"</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(68, 1) = "uses"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(68, 1) = "runs"</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(68, 2) = "use"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(68, 2) = "run"</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(68, 3) = "N"</v>
+        <f t="shared" si="7"/>
+        <v>verbTense(68, 3) = "Y"</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>verbTense(68, 1) = "uses" : verbTense(68, 2) = "use" : verbTense(68, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(68, 1) = "runs" : verbTense(68, 2) = "run" : verbTense(68, 3) = "Y"</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(69, 1) = "utilizes"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(69, 1) = "serves"</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(69, 2) = "utilize"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(69, 2) = "serve"</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>verbTense(69, 3) = "N"</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>verbTense(69, 1) = "utilizes" : verbTense(69, 2) = "utilize" : verbTense(69, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(69, 1) = "serves" : verbTense(69, 2) = "serve" : verbTense(69, 3) = "N"</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(70, 1) = "validates"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(70, 1) = "shows"</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(70, 2) = "validate"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(70, 2) = "show"</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>verbTense(70, 3) = "N"</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>verbTense(70, 1) = "validates" : verbTense(70, 2) = "validate" : verbTense(70, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(70, 1) = "shows" : verbTense(70, 2) = "show" : verbTense(70, 3) = "N"</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(71, 1) = "works"</v>
+        <f t="shared" si="5"/>
+        <v>verbTense(71, 1) = "specifies"</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(71, 2) = "work"</v>
+        <f t="shared" si="6"/>
+        <v>verbTense(71, 2) = "specify"</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>verbTense(71, 3) = "N"</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>verbTense(71, 1) = "works" : verbTense(71, 2) = "work" : verbTense(71, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(71, 1) = "specifies" : verbTense(71, 2) = "specify" : verbTense(71, 3) = "N"</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(72, 1) = "supports"</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(72, 2) = "support"</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(72, 3) = "N"</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(72, 1) = "supports" : verbTense(72, 2) = "support" : verbTense(72, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(73, 1) = "translates"</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(73, 2) = "translate"</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(73, 3) = "N"</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(73, 1) = "translates" : verbTense(73, 2) = "translate" : verbTense(73, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(74, 1) = "understands"</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(74, 2) = "understand"</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(74, 3) = "N"</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" ref="G75:G80" si="9" xml:space="preserve"> D75 &amp; " : " &amp; E75 &amp; " : " &amp; F75</f>
+        <v>verbTense(74, 1) = "understands" : verbTense(74, 2) = "understand" : verbTense(74, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(75, 1) = "uses"</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(75, 2) = "use"</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(75, 3) = "N"</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(75, 1) = "uses" : verbTense(75, 2) = "use" : verbTense(75, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(76, 1) = "utilizes"</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(76, 2) = "utilize"</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(76, 3) = "N"</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(76, 1) = "utilizes" : verbTense(76, 2) = "utilize" : verbTense(76, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(77, 1) = "validates"</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(77, 2) = "validate"</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(77, 3) = "N"</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(77, 1) = "validates" : verbTense(77, 2) = "validate" : verbTense(77, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(78, 1) = "works"</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(78, 2) = "work"</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(78, 3) = "N"</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(78, 1) = "works" : verbTense(78, 2) = "work" : verbTense(78, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(72, 1) = "writes"</v>
-      </c>
-      <c r="E73" s="1" t="str">
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(79, 1) = "writes"</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(79, 2) = "write"</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(79, 3) = "N"</v>
+      </c>
+      <c r="G80" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(72, 2) = "write"</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(72, 3) = "N"</v>
-      </c>
-      <c r="G73" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>verbTense(72, 1) = "writes" : verbTense(72, 2) = "write" : verbTense(72, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+        <v>verbTense(79, 1) = "writes" : verbTense(79, 2) = "write" : verbTense(79, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(73, 1) = ""</v>
-      </c>
-      <c r="E74" s="6" t="str">
-        <f t="shared" ref="E74" si="13">"verbTense(" &amp; ROW(A74)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B74</f>
-        <v>verbTense(73, 2) = ""</v>
-      </c>
-      <c r="F74" s="6" t="str">
-        <f t="shared" ref="F74" si="14">"verbTense(" &amp; ROW(A74)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C74</f>
-        <v>verbTense(73, 3) = "N"</v>
-      </c>
-      <c r="G74" s="6" t="str">
-        <f xml:space="preserve"> D74 &amp; " : " &amp; E74 &amp; " : " &amp; F74</f>
-        <v>verbTense(73, 1) = "" : verbTense(73, 2) = "" : verbTense(73, 3) = "N"</v>
+      <c r="C81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(80, 1) = ""</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(80, 2) = ""</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(80, 3) = "N"</v>
+      </c>
+      <c r="G81" s="6" t="str">
+        <f xml:space="preserve"> D81 &amp; " : " &amp; E81 &amp; " : " &amp; F81</f>
+        <v>verbTense(80, 1) = "" : verbTense(80, 2) = "" : verbTense(80, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerbTense1 Repo.xlsx
+++ b/VerbTense1 Repo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Macros-Ideas\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B5674-2D27-48C6-9843-F16E4D632B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A96F14-49A2-497E-9BDF-CB079F8EF249}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A92E58C3-DEEF-5740-8923-F8C92AAA8A41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
   <si>
     <t>Verb</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>"help"</t>
+  </si>
+  <si>
+    <t>"handles"</t>
+  </si>
+  <si>
+    <t>"handle"</t>
   </si>
 </sst>
 </file>
@@ -942,11 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A916FE1-C284-D84C-896C-BD533F701DC8}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G2:G81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D43" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
+        <f t="shared" ref="D3:D44" si="1">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A3</f>
         <v>verbTense(2, 1) = "acts"</v>
       </c>
       <c r="E3" s="1" t="str">
@@ -1023,11 +1029,11 @@
         <v>verbTense(2, 2) = "act"</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F43" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
+        <f t="shared" ref="F3:F44" si="2">"verbTense(" &amp; ROW(A3)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C3</f>
         <v>verbTense(2, 3) = "N"</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G74" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
+        <f t="shared" ref="G3:G75" si="3" xml:space="preserve"> D3 &amp; " : " &amp; E3 &amp; " : " &amp; F3</f>
         <v>verbTense(2, 1) = "acts" : verbTense(2, 2) = "act" : verbTense(2, 3) = "N"</v>
       </c>
     </row>
@@ -1910,7 +1916,7 @@
         <v>verbTense(35, 1) = "executes"</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" ref="E36:E43" si="4">"verbTense(" &amp; ROW(A36)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B36</f>
+        <f t="shared" ref="E36:E44" si="4">"verbTense(" &amp; ROW(A36)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B36</f>
         <v>verbTense(35, 2) = "execute"</v>
       </c>
       <c r="F36" s="1" t="str">
@@ -1978,21 +1984,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(38, 1) = "has"</v>
+        <v>verbTense(38, 1) = "handles"</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(38, 2) = "have"</v>
+        <v>verbTense(38, 2) = "handle"</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2000,26 +2006,26 @@
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(38, 1) = "has" : verbTense(38, 2) = "have" : verbTense(38, 3) = "N"</v>
+        <v>verbTense(38, 1) = "handles" : verbTense(38, 2) = "handle" : verbTense(38, 3) = "N"</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(39, 1) = "helps"</v>
+        <v>verbTense(39, 1) = "has"</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(39, 2) = "help"</v>
+        <v>verbTense(39, 2) = "have"</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2027,26 +2033,26 @@
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(39, 1) = "helps" : verbTense(39, 2) = "help" : verbTense(39, 3) = "N"</v>
+        <v>verbTense(39, 1) = "has" : verbTense(39, 2) = "have" : verbTense(39, 3) = "N"</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(40, 1) = "identifies"</v>
+        <v>verbTense(40, 1) = "helps"</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(40, 2) = "identify"</v>
+        <v>verbTense(40, 2) = "help"</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2054,26 +2060,26 @@
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(40, 1) = "identifies" : verbTense(40, 2) = "identify" : verbTense(40, 3) = "N"</v>
+        <v>verbTense(40, 1) = "helps" : verbTense(40, 2) = "help" : verbTense(40, 3) = "N"</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(41, 1) = "implements"</v>
+        <v>verbTense(41, 1) = "identifies"</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(41, 2) = "implement"</v>
+        <v>verbTense(41, 2) = "identify"</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2081,26 +2087,26 @@
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(41, 1) = "implements" : verbTense(41, 2) = "implement" : verbTense(41, 3) = "N"</v>
+        <v>verbTense(41, 1) = "identifies" : verbTense(41, 2) = "identify" : verbTense(41, 3) = "N"</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(42, 1) = "improves"</v>
+        <v>verbTense(42, 1) = "implements"</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(42, 2) = "improve"</v>
+        <v>verbTense(42, 2) = "implement"</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2108,80 +2114,80 @@
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(42, 1) = "improves" : verbTense(42, 2) = "improve" : verbTense(42, 3) = "N"</v>
+        <v>verbTense(42, 1) = "implements" : verbTense(42, 2) = "implement" : verbTense(42, 3) = "N"</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" ref="D44:D81" si="5">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A44</f>
-        <v>verbTense(43, 1) = "initiates"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(43, 1) = "improves"</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" ref="E44:E81" si="6">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B44</f>
-        <v>verbTense(43, 2) = "initiate"</v>
+        <f t="shared" si="4"/>
+        <v>verbTense(43, 2) = "improve"</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" ref="F44:F81" si="7">"verbTense(" &amp; ROW(A44)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C44</f>
+        <f t="shared" si="2"/>
         <v>verbTense(43, 3) = "N"</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(43, 1) = "initiates" : verbTense(43, 2) = "initiate" : verbTense(43, 3) = "N"</v>
+        <v>verbTense(43, 1) = "improves" : verbTense(43, 2) = "improve" : verbTense(43, 3) = "N"</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(44, 1) = "installs"</v>
+        <f t="shared" ref="D45:D82" si="5">"verbTense(" &amp; ROW(A45)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A45</f>
+        <v>verbTense(44, 1) = "initiates"</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(44, 2) = "install"</v>
+        <f t="shared" ref="E45:E82" si="6">"verbTense(" &amp; ROW(A45)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B45</f>
+        <v>verbTense(44, 2) = "initiate"</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F45:F82" si="7">"verbTense(" &amp; ROW(A45)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C45</f>
         <v>verbTense(44, 3) = "N"</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(44, 1) = "installs" : verbTense(44, 2) = "install" : verbTense(44, 3) = "N"</v>
+        <v>verbTense(44, 1) = "initiates" : verbTense(44, 2) = "initiate" : verbTense(44, 3) = "N"</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(45, 1) = "interacts"</v>
+        <v>verbTense(45, 1) = "installs"</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(45, 2) = "interact"</v>
+        <v>verbTense(45, 2) = "install"</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2189,26 +2195,26 @@
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(45, 1) = "interacts" : verbTense(45, 2) = "interact" : verbTense(45, 3) = "N"</v>
+        <v>verbTense(45, 1) = "installs" : verbTense(45, 2) = "install" : verbTense(45, 3) = "N"</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(46, 1) = "interprets"</v>
+        <v>verbTense(46, 1) = "interacts"</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(46, 2) = "interpret"</v>
+        <v>verbTense(46, 2) = "interact"</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2216,26 +2222,26 @@
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(46, 1) = "interprets" : verbTense(46, 2) = "interpret" : verbTense(46, 3) = "N"</v>
+        <v>verbTense(46, 1) = "interacts" : verbTense(46, 2) = "interact" : verbTense(46, 3) = "N"</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(47, 1) = "investigates"</v>
+        <v>verbTense(47, 1) = "interprets"</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(47, 2) = "investigate"</v>
+        <v>verbTense(47, 2) = "interpret"</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2243,26 +2249,26 @@
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(47, 1) = "investigates" : verbTense(47, 2) = "investigate" : verbTense(47, 3) = "N"</v>
+        <v>verbTense(47, 1) = "interprets" : verbTense(47, 2) = "interpret" : verbTense(47, 3) = "N"</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(48, 1) = "leads"</v>
+        <v>verbTense(48, 1) = "investigates"</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(48, 2) = "lead"</v>
+        <v>verbTense(48, 2) = "investigate"</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2270,26 +2276,26 @@
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(48, 1) = "leads" : verbTense(48, 2) = "lead" : verbTense(48, 3) = "N"</v>
+        <v>verbTense(48, 1) = "investigates" : verbTense(48, 2) = "investigate" : verbTense(48, 3) = "N"</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(49, 1) = "maintains"</v>
+        <v>verbTense(49, 1) = "leads"</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(49, 2) = "maintain"</v>
+        <v>verbTense(49, 2) = "lead"</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2297,26 +2303,26 @@
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(49, 1) = "maintains" : verbTense(49, 2) = "maintain" : verbTense(49, 3) = "N"</v>
+        <v>verbTense(49, 1) = "leads" : verbTense(49, 2) = "lead" : verbTense(49, 3) = "N"</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(50, 1) = "manages"</v>
+        <v>verbTense(50, 1) = "maintains"</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(50, 2) = "manage"</v>
+        <v>verbTense(50, 2) = "maintain"</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2324,26 +2330,26 @@
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(50, 1) = "manages" : verbTense(50, 2) = "manage" : verbTense(50, 3) = "N"</v>
+        <v>verbTense(50, 1) = "maintains" : verbTense(50, 2) = "maintain" : verbTense(50, 3) = "N"</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(51, 1) = "mentors"</v>
+        <v>verbTense(51, 1) = "manages"</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(51, 2) = "mentor"</v>
+        <v>verbTense(51, 2) = "manage"</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2351,26 +2357,26 @@
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(51, 1) = "mentors" : verbTense(51, 2) = "mentor" : verbTense(51, 3) = "N"</v>
+        <v>verbTense(51, 1) = "manages" : verbTense(51, 2) = "manage" : verbTense(51, 3) = "N"</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(52, 1) = "monitors"</v>
+        <v>verbTense(52, 1) = "mentors"</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(52, 2) = "monitor"</v>
+        <v>verbTense(52, 2) = "mentor"</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2378,26 +2384,26 @@
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(52, 1) = "monitors" : verbTense(52, 2) = "monitor" : verbTense(52, 3) = "N"</v>
+        <v>verbTense(52, 1) = "mentors" : verbTense(52, 2) = "mentor" : verbTense(52, 3) = "N"</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(53, 1) = "moves"</v>
+        <v>verbTense(53, 1) = "monitors"</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(53, 2) = "move"</v>
+        <v>verbTense(53, 2) = "monitor"</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2405,26 +2411,26 @@
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(53, 1) = "moves" : verbTense(53, 2) = "move" : verbTense(53, 3) = "N"</v>
+        <v>verbTense(53, 1) = "monitors" : verbTense(53, 2) = "monitor" : verbTense(53, 3) = "N"</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(54, 1) = "organizes"</v>
+        <v>verbTense(54, 1) = "moves"</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(54, 2) = "organize"</v>
+        <v>verbTense(54, 2) = "move"</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2432,26 +2438,26 @@
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(54, 1) = "organizes" : verbTense(54, 2) = "organize" : verbTense(54, 3) = "N"</v>
+        <v>verbTense(54, 1) = "moves" : verbTense(54, 2) = "move" : verbTense(54, 3) = "N"</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(55, 1) = "oversees"</v>
+        <v>verbTense(55, 1) = "organizes"</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(55, 2) = "oversee"</v>
+        <v>verbTense(55, 2) = "organize"</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2459,26 +2465,26 @@
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(55, 1) = "oversees" : verbTense(55, 2) = "oversee" : verbTense(55, 3) = "N"</v>
+        <v>verbTense(55, 1) = "organizes" : verbTense(55, 2) = "organize" : verbTense(55, 3) = "N"</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(56, 1) = "participates"</v>
+        <v>verbTense(56, 1) = "oversees"</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(56, 2) = "participate"</v>
+        <v>verbTense(56, 2) = "oversee"</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2486,80 +2492,80 @@
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(56, 1) = "participates" : verbTense(56, 2) = "participate" : verbTense(56, 3) = "N"</v>
+        <v>verbTense(56, 1) = "oversees" : verbTense(56, 2) = "oversee" : verbTense(56, 3) = "N"</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(57, 1) = "partners"</v>
+        <v>verbTense(57, 1) = "participates"</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(57, 2) = "partner"</v>
+        <v>verbTense(57, 2) = "participate"</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(57, 3) = "Y"</v>
+        <v>verbTense(57, 3) = "N"</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(57, 1) = "partners" : verbTense(57, 2) = "partner" : verbTense(57, 3) = "Y"</v>
+        <v>verbTense(57, 1) = "participates" : verbTense(57, 2) = "participate" : verbTense(57, 3) = "N"</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(58, 1) = "performs"</v>
+        <v>verbTense(58, 1) = "partners"</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(58, 2) = "perform"</v>
+        <v>verbTense(58, 2) = "partner"</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(58, 3) = "N"</v>
+        <v>verbTense(58, 3) = "Y"</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(58, 1) = "performs" : verbTense(58, 2) = "perform" : verbTense(58, 3) = "N"</v>
+        <v>verbTense(58, 1) = "partners" : verbTense(58, 2) = "partner" : verbTense(58, 3) = "Y"</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(59, 1) = "plays"</v>
+        <v>verbTense(59, 1) = "performs"</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(59, 2) = "play"</v>
+        <v>verbTense(59, 2) = "perform"</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2567,26 +2573,26 @@
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(59, 1) = "plays" : verbTense(59, 2) = "play" : verbTense(59, 3) = "N"</v>
+        <v>verbTense(59, 1) = "performs" : verbTense(59, 2) = "perform" : verbTense(59, 3) = "N"</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(60, 1) = "prepares"</v>
+        <v>verbTense(60, 1) = "plays"</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(60, 2) = "prepare"</v>
+        <v>verbTense(60, 2) = "play"</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2594,26 +2600,26 @@
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(60, 1) = "prepares" : verbTense(60, 2) = "prepare" : verbTense(60, 3) = "N"</v>
+        <v>verbTense(60, 1) = "plays" : verbTense(60, 2) = "play" : verbTense(60, 3) = "N"</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(61, 1) = "presents"</v>
+        <v>verbTense(61, 1) = "prepares"</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(61, 2) = "present"</v>
+        <v>verbTense(61, 2) = "prepare"</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2621,26 +2627,26 @@
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(61, 1) = "presents" : verbTense(61, 2) = "present" : verbTense(61, 3) = "N"</v>
+        <v>verbTense(61, 1) = "prepares" : verbTense(61, 2) = "prepare" : verbTense(61, 3) = "N"</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(62, 1) = "protects"</v>
+        <v>verbTense(62, 1) = "presents"</v>
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(62, 2) = "protect"</v>
+        <v>verbTense(62, 2) = "present"</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2648,26 +2654,26 @@
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(62, 1) = "protects" : verbTense(62, 2) = "protect" : verbTense(62, 3) = "N"</v>
+        <v>verbTense(62, 1) = "presents" : verbTense(62, 2) = "present" : verbTense(62, 3) = "N"</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(63, 1) = "provides"</v>
+        <v>verbTense(63, 1) = "protects"</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(63, 2) = "provide"</v>
+        <v>verbTense(63, 2) = "protect"</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2675,80 +2681,80 @@
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(63, 1) = "provides" : verbTense(63, 2) = "provide" : verbTense(63, 3) = "N"</v>
+        <v>verbTense(63, 1) = "protects" : verbTense(63, 2) = "protect" : verbTense(63, 3) = "N"</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(64, 1) = "recruits"</v>
+        <v>verbTense(64, 1) = "provides"</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(64, 2) = "recruit"</v>
+        <v>verbTense(64, 2) = "provide"</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="7"/>
         <v>verbTense(64, 3) = "N"</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" ref="G65" si="8" xml:space="preserve"> D65 &amp; " : " &amp; E65 &amp; " : " &amp; F65</f>
-        <v>verbTense(64, 1) = "recruits" : verbTense(64, 2) = "recruit" : verbTense(64, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(64, 1) = "provides" : verbTense(64, 2) = "provide" : verbTense(64, 3) = "N"</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(65, 1) = "replicates"</v>
+        <v>verbTense(65, 1) = "recruits"</v>
       </c>
       <c r="E66" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(65, 2) = "replicate"</v>
+        <v>verbTense(65, 2) = "recruit"</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="7"/>
         <v>verbTense(65, 3) = "N"</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(65, 1) = "replicates" : verbTense(65, 2) = "replicate" : verbTense(65, 3) = "N"</v>
+        <f t="shared" ref="G66" si="8" xml:space="preserve"> D66 &amp; " : " &amp; E66 &amp; " : " &amp; F66</f>
+        <v>verbTense(65, 1) = "recruits" : verbTense(65, 2) = "recruit" : verbTense(65, 3) = "N"</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(66, 1) = "resolves"</v>
+        <v>verbTense(66, 1) = "replicates"</v>
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(66, 2) = "resolve"</v>
+        <v>verbTense(66, 2) = "replicate"</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2756,53 +2762,53 @@
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(66, 1) = "resolves" : verbTense(66, 2) = "resolve" : verbTense(66, 3) = "N"</v>
+        <v>verbTense(66, 1) = "replicates" : verbTense(66, 2) = "replicate" : verbTense(66, 3) = "N"</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(67, 1) = "reviews"</v>
+        <v>verbTense(67, 1) = "resolves"</v>
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(67, 2) = "review"</v>
+        <v>verbTense(67, 2) = "resolve"</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(67, 3) = "Y"</v>
+        <v>verbTense(67, 3) = "N"</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(67, 1) = "reviews" : verbTense(67, 2) = "review" : verbTense(67, 3) = "Y"</v>
+        <v>verbTense(67, 1) = "resolves" : verbTense(67, 2) = "resolve" : verbTense(67, 3) = "N"</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(68, 1) = "runs"</v>
+        <v>verbTense(68, 1) = "reviews"</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(68, 2) = "run"</v>
+        <v>verbTense(68, 2) = "review"</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2810,53 +2816,53 @@
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(68, 1) = "runs" : verbTense(68, 2) = "run" : verbTense(68, 3) = "Y"</v>
+        <v>verbTense(68, 1) = "reviews" : verbTense(68, 2) = "review" : verbTense(68, 3) = "Y"</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(69, 1) = "serves"</v>
+        <v>verbTense(69, 1) = "runs"</v>
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(69, 2) = "serve"</v>
+        <v>verbTense(69, 2) = "run"</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(69, 3) = "N"</v>
+        <v>verbTense(69, 3) = "Y"</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(69, 1) = "serves" : verbTense(69, 2) = "serve" : verbTense(69, 3) = "N"</v>
+        <v>verbTense(69, 1) = "runs" : verbTense(69, 2) = "run" : verbTense(69, 3) = "Y"</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(70, 1) = "shows"</v>
+        <v>verbTense(70, 1) = "serves"</v>
       </c>
       <c r="E71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(70, 2) = "show"</v>
+        <v>verbTense(70, 2) = "serve"</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2864,26 +2870,26 @@
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(70, 1) = "shows" : verbTense(70, 2) = "show" : verbTense(70, 3) = "N"</v>
+        <v>verbTense(70, 1) = "serves" : verbTense(70, 2) = "serve" : verbTense(70, 3) = "N"</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(71, 1) = "specifies"</v>
+        <v>verbTense(71, 1) = "shows"</v>
       </c>
       <c r="E72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(71, 2) = "specify"</v>
+        <v>verbTense(71, 2) = "show"</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2891,26 +2897,26 @@
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(71, 1) = "specifies" : verbTense(71, 2) = "specify" : verbTense(71, 3) = "N"</v>
+        <v>verbTense(71, 1) = "shows" : verbTense(71, 2) = "show" : verbTense(71, 3) = "N"</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(72, 1) = "supports"</v>
+        <v>verbTense(72, 1) = "specifies"</v>
       </c>
       <c r="E73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(72, 2) = "support"</v>
+        <v>verbTense(72, 2) = "specify"</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2918,26 +2924,26 @@
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(72, 1) = "supports" : verbTense(72, 2) = "support" : verbTense(72, 3) = "N"</v>
+        <v>verbTense(72, 1) = "specifies" : verbTense(72, 2) = "specify" : verbTense(72, 3) = "N"</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(73, 1) = "translates"</v>
+        <v>verbTense(73, 1) = "supports"</v>
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(73, 2) = "translate"</v>
+        <v>verbTense(73, 2) = "support"</v>
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2945,80 +2951,80 @@
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(73, 1) = "translates" : verbTense(73, 2) = "translate" : verbTense(73, 3) = "N"</v>
+        <v>verbTense(73, 1) = "supports" : verbTense(73, 2) = "support" : verbTense(73, 3) = "N"</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(74, 1) = "understands"</v>
+        <v>verbTense(74, 1) = "translates"</v>
       </c>
       <c r="E75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(74, 2) = "understand"</v>
+        <v>verbTense(74, 2) = "translate"</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="7"/>
         <v>verbTense(74, 3) = "N"</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" ref="G75:G80" si="9" xml:space="preserve"> D75 &amp; " : " &amp; E75 &amp; " : " &amp; F75</f>
-        <v>verbTense(74, 1) = "understands" : verbTense(74, 2) = "understand" : verbTense(74, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(74, 1) = "translates" : verbTense(74, 2) = "translate" : verbTense(74, 3) = "N"</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(75, 1) = "uses"</v>
+        <v>verbTense(75, 1) = "understands"</v>
       </c>
       <c r="E76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(75, 2) = "use"</v>
+        <v>verbTense(75, 2) = "understand"</v>
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="7"/>
         <v>verbTense(75, 3) = "N"</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(75, 1) = "uses" : verbTense(75, 2) = "use" : verbTense(75, 3) = "N"</v>
+        <f t="shared" ref="G76:G81" si="9" xml:space="preserve"> D76 &amp; " : " &amp; E76 &amp; " : " &amp; F76</f>
+        <v>verbTense(75, 1) = "understands" : verbTense(75, 2) = "understand" : verbTense(75, 3) = "N"</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(76, 1) = "utilizes"</v>
+        <v>verbTense(76, 1) = "uses"</v>
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(76, 2) = "utilize"</v>
+        <v>verbTense(76, 2) = "use"</v>
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3026,26 +3032,26 @@
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(76, 1) = "utilizes" : verbTense(76, 2) = "utilize" : verbTense(76, 3) = "N"</v>
+        <v>verbTense(76, 1) = "uses" : verbTense(76, 2) = "use" : verbTense(76, 3) = "N"</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(77, 1) = "validates"</v>
+        <v>verbTense(77, 1) = "utilizes"</v>
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(77, 2) = "validate"</v>
+        <v>verbTense(77, 2) = "utilize"</v>
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3053,26 +3059,26 @@
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(77, 1) = "validates" : verbTense(77, 2) = "validate" : verbTense(77, 3) = "N"</v>
+        <v>verbTense(77, 1) = "utilizes" : verbTense(77, 2) = "utilize" : verbTense(77, 3) = "N"</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(78, 1) = "works"</v>
+        <v>verbTense(78, 1) = "validates"</v>
       </c>
       <c r="E79" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(78, 2) = "work"</v>
+        <v>verbTense(78, 2) = "validate"</v>
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3080,26 +3086,26 @@
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(78, 1) = "works" : verbTense(78, 2) = "work" : verbTense(78, 3) = "N"</v>
+        <v>verbTense(78, 1) = "validates" : verbTense(78, 2) = "validate" : verbTense(78, 3) = "N"</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(79, 1) = "writes"</v>
+        <v>verbTense(79, 1) = "works"</v>
       </c>
       <c r="E80" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(79, 2) = "write"</v>
+        <v>verbTense(79, 2) = "work"</v>
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3107,38 +3113,65 @@
       </c>
       <c r="G80" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(79, 1) = "writes" : verbTense(79, 2) = "write" : verbTense(79, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+        <v>verbTense(79, 1) = "works" : verbTense(79, 2) = "work" : verbTense(79, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(80, 1) = "writes"</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(80, 2) = "write"</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(80, 3) = "N"</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(80, 1) = "writes" : verbTense(80, 2) = "write" : verbTense(80, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(80, 1) = ""</v>
-      </c>
-      <c r="E81" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(80, 2) = ""</v>
-      </c>
-      <c r="F81" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(80, 3) = "N"</v>
-      </c>
-      <c r="G81" s="6" t="str">
-        <f xml:space="preserve"> D81 &amp; " : " &amp; E81 &amp; " : " &amp; F81</f>
-        <v>verbTense(80, 1) = "" : verbTense(80, 2) = "" : verbTense(80, 3) = "N"</v>
+      <c r="C82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(81, 1) = ""</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(81, 2) = ""</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(81, 3) = "N"</v>
+      </c>
+      <c r="G82" s="6" t="str">
+        <f xml:space="preserve"> D82 &amp; " : " &amp; E82 &amp; " : " &amp; F82</f>
+        <v>verbTense(81, 1) = "" : verbTense(81, 2) = "" : verbTense(81, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C81">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
